--- a/cutAudioData/Dataset.xlsx
+++ b/cutAudioData/Dataset.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>50</v>
+        <v>33.333</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>33.333</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>33.333</v>
+        <v>0</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>33.333</v>
+        <v>50</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>33.333</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1761,11 +1761,791 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>33.333</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>Data-25\City_4.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>data_90</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Data-26\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>data_91</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Data-26\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>data_92</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>33.333</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Data-26\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>data_93</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Data-26\City_4.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>data_94</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Data-27\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>data_95</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Data-27\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>data_96</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Data-27\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>data_97</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Data-27\City_4.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>data_98</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Data-28\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>data_99</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>33.333</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Data-28\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>data_100</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Data-28\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>data_101</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Data-28\City_4.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>data_102</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Data-29\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>data_103</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>33.333</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Data-29\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>data_104</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>50</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Data-29\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>data_105</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Data-29\City_4.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>data_106</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>50</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Data-30\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>data_107</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Data-30\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>data_108</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Data-30\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>data_109</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Data-30\City_4.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>data_110</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Data-31\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>data_111</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Data-31\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>data_112</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Data-31\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>data_113</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Data-31\City_4.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>data_114</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Data-32\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>data_115</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>50</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Data-32\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>data_116</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Data-32\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>data_117</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Data-33\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>data_118</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Data-33\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>data_119</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>33.333</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Data-33\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>data_120</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Data-34\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>data_121</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Data-34\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>data_122</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Data-34\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>data_123</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Data-34\City_4.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>data_124</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Data-35\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>data_125</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>33.333</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Data-35\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>data_126</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Data-35\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>data_127</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Data-35\City_4.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>data_128</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Data-36\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>data_129</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>33.333</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Data-36\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>data_130</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Data-36\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>data_131</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Data-37\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>data_132</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Data-37\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>data_133</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>33.333</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Data-37\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>data_134</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Data-38\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>data_135</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Data-38\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>data_136</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Data-38\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>data_137</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Data-39\City_1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>data_138</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Data-39\City_2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>data_139</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Data-39\City_3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>data_140</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>33.333</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Data-39\City_4.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>data_141</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Data-40\City_1.wav</t>
         </is>
       </c>
     </row>
